--- a/rotmic/static/uploadexample_proteincomponent.xlsx
+++ b/rotmic/static/uploadexample_proteincomponent.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>HHHHHH</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -241,7 +244,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="219075"/>
-          <a:ext cx="10601325" cy="828675"/>
+          <a:ext cx="9134475" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -277,13 +280,51 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>* Clear the example data (except Status and Type columns) before inserting your own data!</a:t>
-          </a:r>
+            <a:t>Clear the example data (except Status and Type columns).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fields marked in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>*"Encoded  By" optionally connects</a:t>
+            <a:t>"Encoded  By" optionally connects</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -317,8 +358,46 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>* If left empty, the new construct's name will be copied from the "Encoded By" DNA fragment (if given).</a:t>
-          </a:r>
+            <a:t>If left empty, the new construct's name will be copied from the "Encoded By" DNA fragment (if given).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projects are referenced by their name, separated by comma (you can only refer to projects that are already registered on the server).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -612,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,16 +703,17 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -650,13 +730,16 @@
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -669,11 +752,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -689,11 +772,11 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -706,14 +789,14 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -721,7 +804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -729,7 +812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -737,7 +820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -745,7 +828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -753,7 +836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="C16" t="s">
         <v>8</v>
       </c>

--- a/rotmic/static/uploadexample_proteincomponent.xlsx
+++ b/rotmic/static/uploadexample_proteincomponent.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -132,13 +132,19 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>raik, admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +169,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,6 +224,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,10 +244,10 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -244,7 +257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="219075"/>
-          <a:ext cx="9134475" cy="828675"/>
+          <a:ext cx="10610850" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -318,6 +331,47 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Authors: provide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> one or more rotmic user names separated by comma.  Leave empty to register the user who is uploading the file as single author.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -691,389 +745,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C45">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E45">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
